--- a/data/core_stats/Core Stats_20230408050831 (data overview last 28 days).xlsx
+++ b/data/core_stats/Core Stats_20230408050831 (data overview last 28 days).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47D6E26-E3AF-40F3-9EFC-16BCCC8E6BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD49F98-1A94-45AB-8783-BDCA215E9160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1383,7 +1383,7 @@
     <t>1204833</t>
   </si>
   <si>
-    <t>Product Views</t>
+    <t xml:space="preserve">Product Views </t>
   </si>
 </sst>
 </file>
@@ -1448,6 +1448,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1711,7 +1715,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
